--- a/Machine_Learning/HouseData/Documents/VariableAnalysys.xlsx
+++ b/Machine_Learning/HouseData/Documents/VariableAnalysys.xlsx
@@ -7,18 +7,21 @@
     <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="AllParameters" sheetId="1" r:id="rId1"/>
+    <sheet name="ObjectPara" sheetId="5" r:id="rId2"/>
+    <sheet name="Correlation" sheetId="6" r:id="rId3"/>
+    <sheet name="Multicolleriarity" sheetId="7" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="8" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Multicolleriarity!$F$1:$F$44</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="303">
   <si>
     <t>Column Name</t>
   </si>
@@ -691,264 +694,6 @@
     <t>Zeros' Indicate the house doesn’t have Half Bath, it has to be replaced with 'None', since it will affect the Distribution</t>
   </si>
   <si>
-    <t>Alley ------ : 1369</t>
-  </si>
-  <si>
-    <t>MasVnrType ------ : 8</t>
-  </si>
-  <si>
-    <t>BsmtQual ------ : 37</t>
-  </si>
-  <si>
-    <t>BsmtCond ------ : 37</t>
-  </si>
-  <si>
-    <t>BsmtExposure ------ : 38</t>
-  </si>
-  <si>
-    <t>BsmtFinType1 ------ : 37</t>
-  </si>
-  <si>
-    <t>BsmtFinType2 ------ : 38</t>
-  </si>
-  <si>
-    <t>Electrical ------ : 1</t>
-  </si>
-  <si>
-    <t>FireplaceQu ------ : 690</t>
-  </si>
-  <si>
-    <t>GarageType ------ : 81</t>
-  </si>
-  <si>
-    <t>GarageFinish ------ : 81</t>
-  </si>
-  <si>
-    <t>GarageQual ------ : 81</t>
-  </si>
-  <si>
-    <t>GarageCond ------ : 81</t>
-  </si>
-  <si>
-    <t>PoolQC ------ : 1453</t>
-  </si>
-  <si>
-    <t>Fence ------ : 1179</t>
-  </si>
-  <si>
-    <t>MiscFeature ------ : 1406</t>
-  </si>
-  <si>
-    <t>LotFrontage ------ : 259</t>
-  </si>
-  <si>
-    <t>MasVnrArea ------ : 8</t>
-  </si>
-  <si>
-    <t>GarageYrBlt ------ : 81</t>
-  </si>
-  <si>
-    <t>2ndFlrSF has 829 / 56.8% zeros Zeros</t>
-  </si>
-  <si>
-    <t>3SsnPorch has 1436 / 98.4% zeros Zeros</t>
-  </si>
-  <si>
-    <t>BsmtFinSF1 has 467 / 32.0% zeros Zeros</t>
-  </si>
-  <si>
-    <t>BsmtFinSF2 has 1293 / 88.6% zeros Zeros</t>
-  </si>
-  <si>
-    <t>BsmtFullBath has 856 / 58.6% zeros Zeros</t>
-  </si>
-  <si>
-    <t>BsmtHalfBath has 1378 / 94.4% zeros Zeros</t>
-  </si>
-  <si>
-    <t>BsmtUnfSF has 118 / 8.1% zeros Zeros</t>
-  </si>
-  <si>
-    <t>EnclosedPorch has 1252 / 85.8% zeros Zeros</t>
-  </si>
-  <si>
-    <t>Fireplaces has 690 / 47.3% zeros Zeros</t>
-  </si>
-  <si>
-    <t>GarageArea has 81 / 5.5% zeros Zeros</t>
-  </si>
-  <si>
-    <t>GarageCars has 81 / 5.5% zeros Zeros</t>
-  </si>
-  <si>
-    <t>HalfBath has 913 / 62.5% zeros Zeros</t>
-  </si>
-  <si>
-    <t>LowQualFinSF has 1434 / 98.2% zeros Zeros</t>
-  </si>
-  <si>
-    <t>MasVnrArea has 861 / 59.0% zeros Zeros</t>
-  </si>
-  <si>
-    <t>MiscVal has 1408 / 96.4% zeros Zeros</t>
-  </si>
-  <si>
-    <t>MiscVal is highly skewed (γ1 = 24.477) Skewed</t>
-  </si>
-  <si>
-    <t>OpenPorchSF has 656 / 44.9% zeros Zeros</t>
-  </si>
-  <si>
-    <t>PoolArea has 1453 / 99.5% zeros Zeros</t>
-  </si>
-  <si>
-    <t>ScreenPorch has 1344 / 92.1% zeros Zeros</t>
-  </si>
-  <si>
-    <t>TotalBsmtSF has 37 / 2.5% zeros Zeros</t>
-  </si>
-  <si>
-    <t>WoodDeckSF has 761 / 52.1% zeros Zeros</t>
-  </si>
-  <si>
-    <t>Parameters</t>
-  </si>
-  <si>
-    <t>Observation</t>
-  </si>
-  <si>
-    <t>Some house may have second floor or some may not have second floor , the zero represent no second floor - This schould be marked as 'No' or 'None'</t>
-  </si>
-  <si>
-    <t>Three season porch area in square feet may not be present in that house we have to replace this with 'No' or None</t>
-  </si>
-  <si>
-    <t>Id                 729.50</t>
-  </si>
-  <si>
-    <t>MSSubClass          50.00</t>
-  </si>
-  <si>
-    <t>LotFrontage         21.00</t>
-  </si>
-  <si>
-    <t>LotArea           4048.00</t>
-  </si>
-  <si>
-    <t>OverallQual          2.00</t>
-  </si>
-  <si>
-    <t>OverallCond          1.00</t>
-  </si>
-  <si>
-    <t>YearBuilt           46.00</t>
-  </si>
-  <si>
-    <t>YearRemodAdd        37.00</t>
-  </si>
-  <si>
-    <t>MasVnrArea         166.00</t>
-  </si>
-  <si>
-    <t>BsmtFinSF1         712.25</t>
-  </si>
-  <si>
-    <t>BsmtFinSF2           0.00</t>
-  </si>
-  <si>
-    <t>BsmtUnfSF          585.00</t>
-  </si>
-  <si>
-    <t>TotalBsmtSF        502.50</t>
-  </si>
-  <si>
-    <t>1stFlrSF           509.25</t>
-  </si>
-  <si>
-    <t>2ndFlrSF           728.00</t>
-  </si>
-  <si>
-    <t>LowQualFinSF         0.00</t>
-  </si>
-  <si>
-    <t>GrLivArea          647.25</t>
-  </si>
-  <si>
-    <t>BsmtFullBath         1.00</t>
-  </si>
-  <si>
-    <t>BsmtHalfBath         0.00</t>
-  </si>
-  <si>
-    <t>FullBath             1.00</t>
-  </si>
-  <si>
-    <t>HalfBath             1.00</t>
-  </si>
-  <si>
-    <t>BedroomAbvGr         1.00</t>
-  </si>
-  <si>
-    <t>KitchenAbvGr         0.00</t>
-  </si>
-  <si>
-    <t>TotRmsAbvGrd         2.00</t>
-  </si>
-  <si>
-    <t>Fireplaces           1.00</t>
-  </si>
-  <si>
-    <t>GarageYrBlt         41.00</t>
-  </si>
-  <si>
-    <t>GarageCars           1.00</t>
-  </si>
-  <si>
-    <t>GarageArea         241.50</t>
-  </si>
-  <si>
-    <t>WoodDeckSF         168.00</t>
-  </si>
-  <si>
-    <t>OpenPorchSF         68.00</t>
-  </si>
-  <si>
-    <t>EnclosedPorch        0.00</t>
-  </si>
-  <si>
-    <t>3SsnPorch            0.00</t>
-  </si>
-  <si>
-    <t>ScreenPorch          0.00</t>
-  </si>
-  <si>
-    <t>PoolArea             0.00</t>
-  </si>
-  <si>
-    <t>MiscVal              0.00</t>
-  </si>
-  <si>
-    <t>MoSold               3.00</t>
-  </si>
-  <si>
-    <t>YrSold               2.00</t>
-  </si>
-  <si>
-    <t>SalePrice        84025.00</t>
-  </si>
-  <si>
-    <t>Deleted</t>
-  </si>
-  <si>
-    <t>Category</t>
-  </si>
-  <si>
-    <t>All Basement has to be grouped</t>
-  </si>
-  <si>
-    <t>Drop this</t>
-  </si>
-  <si>
     <t>MSZoning         1460 non-null object</t>
   </si>
   <si>
@@ -1079,13 +824,262 @@
   </si>
   <si>
     <t>Combine</t>
+  </si>
+  <si>
+    <t>SalePrice        1.000000</t>
+  </si>
+  <si>
+    <t>OverallQual      0.817185</t>
+  </si>
+  <si>
+    <t>GrLivArea        0.730254</t>
+  </si>
+  <si>
+    <t>GarageCars       0.680625</t>
+  </si>
+  <si>
+    <t>GarageArea       0.650888</t>
+  </si>
+  <si>
+    <t>1stFlrSF         0.608955</t>
+  </si>
+  <si>
+    <t>FullBath         0.594771</t>
+  </si>
+  <si>
+    <t>TotRmsAbvGrd     0.534422</t>
+  </si>
+  <si>
+    <t>BsmtFinType1    -0.125341</t>
+  </si>
+  <si>
+    <t>Heating         -0.139919</t>
+  </si>
+  <si>
+    <t>KitchenAbvGr    -0.144278</t>
+  </si>
+  <si>
+    <t>MSZoning        -0.188861</t>
+  </si>
+  <si>
+    <t>EnclosedPorch   -0.207263</t>
+  </si>
+  <si>
+    <t>LotShape        -0.278091</t>
+  </si>
+  <si>
+    <t>BsmtExposure    -0.303826</t>
+  </si>
+  <si>
+    <t>GarageFinish    -0.417405</t>
+  </si>
+  <si>
+    <t>HeatingQC       -0.425906</t>
+  </si>
+  <si>
+    <t>YearRemodAdd    -0.470271</t>
+  </si>
+  <si>
+    <t>GarageType      -0.503129</t>
+  </si>
+  <si>
+    <t>GarageYrBlt     -0.513165</t>
+  </si>
+  <si>
+    <t>KitchenQual     -0.534387</t>
+  </si>
+  <si>
+    <t>YearBuilt       -0.571005</t>
+  </si>
+  <si>
+    <t>BsmtQual        -0.576969</t>
+  </si>
+  <si>
+    <t>ExterQual       -0.582164</t>
+  </si>
+  <si>
+    <t>Target</t>
+  </si>
+  <si>
+    <t>Attribute Pair</t>
+  </si>
+  <si>
+    <t>Correlation</t>
+  </si>
+  <si>
+    <t>(GarageArea, GarageCars)</t>
+  </si>
+  <si>
+    <t>(Exterior1st, Exterior2nd)</t>
+  </si>
+  <si>
+    <t>(GarageYrBlt, YearBuilt)</t>
+  </si>
+  <si>
+    <t>(GrLivArea, TotRmsAbvGrd)</t>
+  </si>
+  <si>
+    <t>(BsmtFinSF2, BsmtFinType2)</t>
+  </si>
+  <si>
+    <t>(BsmtFinSF1, BsmtFinType1)</t>
+  </si>
+  <si>
+    <t>(BedroomAbvGr, TotRmsAbvGrd)</t>
+  </si>
+  <si>
+    <t>(LotArea, LotFrontage)</t>
+  </si>
+  <si>
+    <t>(FullBath, GrLivArea)</t>
+  </si>
+  <si>
+    <t>(ExterQual, KitchenQual)</t>
+  </si>
+  <si>
+    <t>(ExterQual, OverallQual)</t>
+  </si>
+  <si>
+    <t>(BldgType, MSSubClass)</t>
+  </si>
+  <si>
+    <t>(Foundation, YearBuilt)</t>
+  </si>
+  <si>
+    <t>(YearBuilt, YearRemodAdd)</t>
+  </si>
+  <si>
+    <t>(GarageCond, GarageQual)</t>
+  </si>
+  <si>
+    <t>(GrLivArea, OverallQual)</t>
+  </si>
+  <si>
+    <t>(BsmtQual, YearBuilt)</t>
+  </si>
+  <si>
+    <t>(GarageCars, OverallQual)</t>
+  </si>
+  <si>
+    <t>(BsmtQual, OverallQual)</t>
+  </si>
+  <si>
+    <t>(BsmtFinSF1, BsmtFullBath)</t>
+  </si>
+  <si>
+    <t>(2ndFlrSF, HalfBath)</t>
+  </si>
+  <si>
+    <t>(GarageYrBlt, YearRemodAdd)</t>
+  </si>
+  <si>
+    <t>(BsmtQual, ExterQual)</t>
+  </si>
+  <si>
+    <t>(GarageCars, GarageYrBlt)</t>
+  </si>
+  <si>
+    <t>(OverallQual, YearBuilt)</t>
+  </si>
+  <si>
+    <t>(BldgType, LotArea)</t>
+  </si>
+  <si>
+    <t>(GarageArea, OverallQual)</t>
+  </si>
+  <si>
+    <t>(2ndFlrSF, GrLivArea)</t>
+  </si>
+  <si>
+    <t>(KitchenQual, OverallQual)</t>
+  </si>
+  <si>
+    <t>(FullBath, TotRmsAbvGrd)</t>
+  </si>
+  <si>
+    <t>(FullBath, OverallQual)</t>
+  </si>
+  <si>
+    <t>(1stFlrSF, GrLivArea)</t>
+  </si>
+  <si>
+    <t>(BedroomAbvGr, GrLivArea)</t>
+  </si>
+  <si>
+    <t>(GarageArea, GarageYrBlt)</t>
+  </si>
+  <si>
+    <t>(2ndFlrSF, MSSubClass)</t>
+  </si>
+  <si>
+    <t>(BldgType, LotFrontage)</t>
+  </si>
+  <si>
+    <t>(BsmtUnfSF, TotalBsmtSF)</t>
+  </si>
+  <si>
+    <t>(BsmtQual, GarageYrBlt)</t>
+  </si>
+  <si>
+    <t>(Foundation, GarageYrBlt)</t>
+  </si>
+  <si>
+    <t>(2ndFlrSF, TotRmsAbvGrd)</t>
+  </si>
+  <si>
+    <t>(GarageYrBlt, OverallQual)</t>
+  </si>
+  <si>
+    <t>(GarageCars, YearBuilt)</t>
+  </si>
+  <si>
+    <t>(BsmtQual, GarageCars)</t>
+  </si>
+  <si>
+    <t>GarageCars</t>
+  </si>
+  <si>
+    <t>YearBuilt</t>
+  </si>
+  <si>
+    <t>GrLivArea</t>
+  </si>
+  <si>
+    <t>ExterQual</t>
+  </si>
+  <si>
+    <t>OverallQual</t>
+  </si>
+  <si>
+    <t>BsmtQual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ExterQual </t>
+  </si>
+  <si>
+    <t>Fireplaces       0.489450</t>
+  </si>
+  <si>
+    <t>OpenPorchSF      0.459948</t>
+  </si>
+  <si>
+    <t>MasVnrArea       0.413318</t>
+  </si>
+  <si>
+    <t>Foundation       0.412083</t>
+  </si>
+  <si>
+    <t>LotArea          0.399923</t>
+  </si>
+  <si>
+    <t>TotalBsmtSF      0.372838</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1112,8 +1106,13 @@
       <name val="Courier New"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1174,6 +1173,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1202,7 +1207,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1261,15 +1266,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1280,12 +1276,73 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00B050"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1582,505 +1639,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:D81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
-        <v>176</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
-        <v>178</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="19" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="19" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="19" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="19" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="18" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="18" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="18" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="18"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="48.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="B1" s="20" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
-        <v>195</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
-        <v>196</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
-        <v>197</v>
-      </c>
-      <c r="B4" s="21"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="B5" s="21"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="B6" s="21"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
-        <v>200</v>
-      </c>
-      <c r="B7" s="21"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
-        <v>201</v>
-      </c>
-      <c r="B8" s="21"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
-        <v>202</v>
-      </c>
-      <c r="B9" s="21"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="21" t="s">
-        <v>203</v>
-      </c>
-      <c r="B10" s="21"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
-        <v>204</v>
-      </c>
-      <c r="B11" s="21"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="s">
-        <v>205</v>
-      </c>
-      <c r="B12" s="21"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="21" t="s">
-        <v>206</v>
-      </c>
-      <c r="B13" s="21"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="21" t="s">
-        <v>207</v>
-      </c>
-      <c r="B14" s="21"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="21" t="s">
-        <v>208</v>
-      </c>
-      <c r="B15" s="21"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="22" t="s">
-        <v>209</v>
-      </c>
-      <c r="B16" s="21"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="22" t="s">
-        <v>210</v>
-      </c>
-      <c r="B17" s="21"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="21" t="s">
-        <v>211</v>
-      </c>
-      <c r="B18" s="21"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="21" t="s">
-        <v>212</v>
-      </c>
-      <c r="B19" s="21"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="21" t="s">
-        <v>213</v>
-      </c>
-      <c r="B20" s="21"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="21" t="s">
-        <v>214</v>
-      </c>
-      <c r="B21" s="21"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="21" t="s">
-        <v>215</v>
-      </c>
-      <c r="B22" s="21"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B38"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
-        <v>220</v>
-      </c>
-      <c r="B1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="26" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="26" t="s">
-        <v>229</v>
-      </c>
-      <c r="B10" s="27" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="26" t="s">
-        <v>230</v>
-      </c>
-      <c r="B11" s="27"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="26" t="s">
-        <v>231</v>
-      </c>
-      <c r="B12" s="27"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="18" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="18" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="23" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="18" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="18" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="23" t="s">
-        <v>238</v>
-      </c>
-      <c r="B19" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="18" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="18" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="18" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="19" t="s">
-        <v>242</v>
-      </c>
-      <c r="B23" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="18" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="18" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="26" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="26" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="26" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="18" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="18" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="23" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="23" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="23" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="23" t="s">
-        <v>253</v>
-      </c>
-      <c r="B34" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="23" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="18" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="18" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="18" t="s">
-        <v>257</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D81"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="B84" sqref="B84"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2916,12 +2478,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2930,228 +2492,1559 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
-        <v>262</v>
+      <c r="A1" s="21" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
-        <v>263</v>
+      <c r="A2" s="21" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
-        <v>264</v>
+      <c r="A3" s="21" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
-        <v>265</v>
+      <c r="A4" s="21" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="24" t="s">
-        <v>266</v>
+      <c r="A5" s="21" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="24" t="s">
-        <v>267</v>
+      <c r="A6" s="21" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="24" t="s">
-        <v>268</v>
+      <c r="A7" s="21" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="24" t="s">
-        <v>269</v>
+      <c r="A8" s="21" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="24" t="s">
-        <v>270</v>
+      <c r="A9" s="21" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="24" t="s">
-        <v>271</v>
+      <c r="A10" s="21" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="24" t="s">
-        <v>272</v>
+      <c r="A11" s="21" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="24" t="s">
-        <v>273</v>
+      <c r="A12" s="21" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="24" t="s">
-        <v>274</v>
+      <c r="A13" s="21" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="24" t="s">
-        <v>275</v>
+      <c r="A14" s="21" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="24" t="s">
-        <v>276</v>
+      <c r="A15" s="21" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="24" t="s">
-        <v>277</v>
+      <c r="A16" s="21" t="s">
+        <v>191</v>
       </c>
       <c r="B16" t="s">
-        <v>304</v>
+        <v>218</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="24" t="s">
-        <v>278</v>
+      <c r="A17" s="21" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="24" t="s">
-        <v>279</v>
+      <c r="A18" s="21" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="24" t="s">
-        <v>280</v>
+      <c r="A19" s="21" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="24" t="s">
-        <v>281</v>
+      <c r="A20" s="21" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="24" t="s">
-        <v>282</v>
+      <c r="A21" s="21" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="26" t="s">
-        <v>283</v>
+      <c r="A22" s="23" t="s">
+        <v>197</v>
       </c>
       <c r="B22" t="s">
-        <v>305</v>
+        <v>219</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="26" t="s">
-        <v>284</v>
+      <c r="A23" s="23" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="26" t="s">
-        <v>285</v>
+      <c r="A24" s="23" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="26" t="s">
-        <v>286</v>
+      <c r="A25" s="23" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="26" t="s">
-        <v>287</v>
+      <c r="A26" s="23" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="24" t="s">
-        <v>288</v>
+      <c r="A27" s="21" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="24" t="s">
-        <v>289</v>
+      <c r="A28" s="21" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="24" t="s">
-        <v>290</v>
+      <c r="A29" s="21" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="24" t="s">
-        <v>291</v>
+      <c r="A30" s="21" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="24" t="s">
-        <v>292</v>
+      <c r="A31" s="21" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="24" t="s">
-        <v>293</v>
+      <c r="A32" s="21" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="24" t="s">
-        <v>294</v>
+      <c r="A33" s="21" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="26" t="s">
-        <v>295</v>
+      <c r="A34" s="23" t="s">
+        <v>209</v>
       </c>
       <c r="B34" t="s">
-        <v>305</v>
+        <v>219</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="26" t="s">
-        <v>296</v>
+      <c r="A35" s="23" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="26" t="s">
-        <v>297</v>
-      </c>
-      <c r="D36" s="25"/>
+      <c r="A36" s="23" t="s">
+        <v>211</v>
+      </c>
+      <c r="D36" s="22"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="26" t="s">
-        <v>298</v>
-      </c>
-      <c r="D37" s="25"/>
+      <c r="A37" s="23" t="s">
+        <v>212</v>
+      </c>
+      <c r="D37" s="22"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="24" t="s">
-        <v>299</v>
+      <c r="A38" s="21" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="24" t="s">
-        <v>300</v>
+      <c r="A39" s="21" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="24" t="s">
-        <v>301</v>
+      <c r="A40" s="21" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="24" t="s">
-        <v>302</v>
+      <c r="A41" s="21" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="24" t="s">
-        <v>303</v>
+      <c r="A42" s="21" t="s">
+        <v>217</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="B1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D1" s="18"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="D2" s="18"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
+        <v>223</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
+        <v>224</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="18" t="s">
+        <v>226</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="19" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="19" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="19" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="19" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="18" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="18" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="18" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="18" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="18" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="18" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="18" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="18" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="18" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="18" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="18" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="18" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="18"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="18"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="18"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="18"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="18"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="18"/>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="18"/>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="18"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="18"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="18"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="18"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="18"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="18"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="18"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="1"/>
+    <col min="6" max="6" width="34.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
+        <v>245</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>246</v>
+      </c>
+      <c r="C1" s="26"/>
+      <c r="F1" s="24" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>22</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="C2" s="7">
+        <v>0.88247500000000001</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>3</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>248</v>
+      </c>
+      <c r="C3" s="27">
+        <v>0.85416300000000001</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>12</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0.82616500000000004</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>34</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0.82552099999999995</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>40</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>251</v>
+      </c>
+      <c r="C6" s="27">
+        <v>-0.82214399999999999</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>13</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>252</v>
+      </c>
+      <c r="C7" s="27">
+        <v>-0.804535</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>29</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>253</v>
+      </c>
+      <c r="C8" s="27">
+        <v>0.67662</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>41</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>254</v>
+      </c>
+      <c r="C9" s="27">
+        <v>0.65400400000000003</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>33</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="C10" s="7">
+        <v>0.65316700000000005</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>7</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="C11" s="7">
+        <v>0.64158400000000004</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>14</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>257</v>
+      </c>
+      <c r="C12" s="29">
+        <v>-0.63431899999999997</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>37</v>
+      </c>
+      <c r="B13" s="27" t="s">
+        <v>258</v>
+      </c>
+      <c r="C13" s="27">
+        <v>0.63351100000000005</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>23</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="C14" s="7">
+        <v>-0.62982800000000005</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>17</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="C15" s="7">
+        <v>0.62096499999999999</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>26</v>
+      </c>
+      <c r="B16" s="27" t="s">
+        <v>261</v>
+      </c>
+      <c r="C16" s="27">
+        <v>0.61838300000000002</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>10</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="C17" s="16">
+        <v>0.61420699999999995</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>38</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>263</v>
+      </c>
+      <c r="C18" s="16">
+        <v>0.60798799999999997</v>
+      </c>
+      <c r="F18" s="28" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>15</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="C19" s="16">
+        <v>0.60067099999999995</v>
+      </c>
+      <c r="F19" s="28" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>6</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="C20" s="16">
+        <v>-0.59963900000000003</v>
+      </c>
+      <c r="F20" s="28" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>31</v>
+      </c>
+      <c r="B21" s="27" t="s">
+        <v>266</v>
+      </c>
+      <c r="C21" s="27">
+        <v>0.59114800000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>0</v>
+      </c>
+      <c r="B22" s="27" t="s">
+        <v>267</v>
+      </c>
+      <c r="C22" s="27">
+        <v>0.58943000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>32</v>
+      </c>
+      <c r="B23" s="27" t="s">
+        <v>268</v>
+      </c>
+      <c r="C23" s="27">
+        <v>0.57915499999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>28</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>269</v>
+      </c>
+      <c r="C24" s="16">
+        <v>0.57232700000000003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>1</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="C25" s="7">
+        <v>-0.57114500000000001</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>4</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>271</v>
+      </c>
+      <c r="C26" s="16">
+        <v>-0.56970500000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>11</v>
+      </c>
+      <c r="B27" s="27" t="s">
+        <v>272</v>
+      </c>
+      <c r="C27" s="27">
+        <v>-0.56491100000000005</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>2</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="C28" s="7">
+        <v>0.56202200000000002</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>20</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="C29" s="7">
+        <v>0.55857100000000004</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>18</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="C30" s="7">
+        <v>-0.55534799999999995</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>36</v>
+      </c>
+      <c r="B31" s="27" t="s">
+        <v>276</v>
+      </c>
+      <c r="C31" s="27">
+        <v>0.55478400000000005</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <v>39</v>
+      </c>
+      <c r="B32" s="27" t="s">
+        <v>277</v>
+      </c>
+      <c r="C32" s="27">
+        <v>0.55059999999999998</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>21</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="C33" s="16">
+        <v>0.54598999999999998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <v>16</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="C34" s="7">
+        <v>0.53884799999999999</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>35</v>
+      </c>
+      <c r="B35" s="27" t="s">
+        <v>280</v>
+      </c>
+      <c r="C35" s="27">
+        <v>-0.53628799999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
+        <v>24</v>
+      </c>
+      <c r="B36" s="27" t="s">
+        <v>281</v>
+      </c>
+      <c r="C36" s="27">
+        <v>0.53379900000000002</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>19</v>
+      </c>
+      <c r="B37" s="27" t="s">
+        <v>282</v>
+      </c>
+      <c r="C37" s="27">
+        <v>-0.53080400000000005</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
+        <v>8</v>
+      </c>
+      <c r="B38" s="27" t="s">
+        <v>283</v>
+      </c>
+      <c r="C38" s="27">
+        <v>0.52437199999999995</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>42</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="C39" s="7">
+        <v>0.51761599999999997</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
+        <v>30</v>
+      </c>
+      <c r="B40" s="27" t="s">
+        <v>285</v>
+      </c>
+      <c r="C40" s="27">
+        <v>-0.51633600000000002</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>25</v>
+      </c>
+      <c r="B41" s="27" t="s">
+        <v>286</v>
+      </c>
+      <c r="C41" s="27">
+        <v>0.50911600000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="4">
+        <v>5</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="C42" s="7">
+        <v>-0.50497199999999998</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>9</v>
+      </c>
+      <c r="B43" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="C43" s="16">
+        <v>-0.50484600000000002</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="4">
+        <v>27</v>
+      </c>
+      <c r="B44" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="C44" s="16">
+        <v>-0.50254699999999997</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13:D23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.5703125" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="7" max="7" width="30.140625" customWidth="1"/>
+    <col min="8" max="8" width="18.140625" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
+        <v>248</v>
+      </c>
+      <c r="B1" s="27">
+        <v>0.85416300000000001</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>257</v>
+      </c>
+      <c r="E1" s="29">
+        <v>-0.63431899999999997</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="H1" s="7">
+        <v>0.88247500000000001</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="27" t="s">
+        <v>251</v>
+      </c>
+      <c r="B2" s="27">
+        <v>-0.82214399999999999</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="E2" s="16">
+        <v>0.61420699999999995</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0.82616500000000004</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="27" t="s">
+        <v>252</v>
+      </c>
+      <c r="B3" s="27">
+        <v>-0.804535</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>263</v>
+      </c>
+      <c r="E3" s="16">
+        <v>0.60798799999999997</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="H3" s="7">
+        <v>0.82552099999999995</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="27" t="s">
+        <v>253</v>
+      </c>
+      <c r="B4" s="27">
+        <v>0.67662</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="E4" s="16">
+        <v>0.60067099999999995</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0.65316700000000005</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="27" t="s">
+        <v>254</v>
+      </c>
+      <c r="B5" s="27">
+        <v>0.65400400000000003</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="E5" s="16">
+        <v>-0.59963900000000003</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0.64158400000000004</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="27" t="s">
+        <v>258</v>
+      </c>
+      <c r="B6" s="27">
+        <v>0.63351100000000005</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>269</v>
+      </c>
+      <c r="E6" s="16">
+        <v>0.57232700000000003</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="H6" s="7">
+        <v>-0.62982800000000005</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="27" t="s">
+        <v>261</v>
+      </c>
+      <c r="B7" s="27">
+        <v>0.61838300000000002</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>271</v>
+      </c>
+      <c r="E7" s="16">
+        <v>-0.56970500000000002</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="H7" s="7">
+        <v>0.62096499999999999</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="27" t="s">
+        <v>266</v>
+      </c>
+      <c r="B8" s="27">
+        <v>0.59114800000000001</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="E8" s="16">
+        <v>0.54598999999999998</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="H8" s="7">
+        <v>-0.57114500000000001</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="27" t="s">
+        <v>267</v>
+      </c>
+      <c r="B9" s="27">
+        <v>0.58943000000000001</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="E9" s="16">
+        <v>-0.50484600000000002</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="H9" s="7">
+        <v>0.56202200000000002</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="27" t="s">
+        <v>268</v>
+      </c>
+      <c r="B10" s="27">
+        <v>0.57915499999999998</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="E10" s="16">
+        <v>-0.50254699999999997</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="H10" s="7">
+        <v>0.55857100000000004</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="27" t="s">
+        <v>272</v>
+      </c>
+      <c r="B11" s="27">
+        <v>-0.56491100000000005</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="H11" s="7">
+        <v>-0.55534799999999995</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="27" t="s">
+        <v>276</v>
+      </c>
+      <c r="B12" s="27">
+        <v>0.55478400000000005</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="H12" s="7">
+        <v>0.53884799999999999</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="27" t="s">
+        <v>277</v>
+      </c>
+      <c r="B13" s="27">
+        <v>0.55059999999999998</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="H13" s="7">
+        <v>0.51761599999999997</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="27" t="s">
+        <v>280</v>
+      </c>
+      <c r="B14" s="27">
+        <v>-0.53628799999999999</v>
+      </c>
+      <c r="D14" s="28" t="s">
+        <v>223</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="H14" s="7">
+        <v>-0.50497199999999998</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="27" t="s">
+        <v>281</v>
+      </c>
+      <c r="B15" s="27">
+        <v>0.53379900000000002</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="27" t="s">
+        <v>282</v>
+      </c>
+      <c r="B16" s="27">
+        <v>-0.53080400000000005</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="27" t="s">
+        <v>283</v>
+      </c>
+      <c r="B17" s="27">
+        <v>0.52437199999999995</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="27" t="s">
+        <v>285</v>
+      </c>
+      <c r="B18" s="27">
+        <v>-0.51633600000000002</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="27" t="s">
+        <v>286</v>
+      </c>
+      <c r="B19" s="27">
+        <v>0.50911600000000001</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D20" s="18" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D21" s="18" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D22" s="18" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D23" s="18" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D24" s="28" t="s">
+        <v>243</v>
+      </c>
+      <c r="G24" s="30" t="s">
+        <v>294</v>
+      </c>
+      <c r="H24" s="34" t="s">
+        <v>222</v>
+      </c>
+      <c r="I24" s="30"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G25" s="30"/>
+      <c r="H25" s="34" t="s">
+        <v>223</v>
+      </c>
+      <c r="I25" s="30"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G26" s="30"/>
+      <c r="H26" s="33" t="s">
+        <v>241</v>
+      </c>
+      <c r="I26" s="30"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G27" s="30"/>
+      <c r="H27" s="33" t="s">
+        <v>242</v>
+      </c>
+      <c r="I27" s="30"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G28" s="30"/>
+      <c r="H28" s="34" t="s">
+        <v>243</v>
+      </c>
+      <c r="I28" s="30"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G29" s="30"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="30"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G30" s="30" t="s">
+        <v>296</v>
+      </c>
+      <c r="H30" s="33" t="s">
+        <v>242</v>
+      </c>
+      <c r="I30" s="30"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G31" s="30"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="30"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G32" s="30"/>
+      <c r="H32" s="30"/>
+      <c r="I32" s="30"/>
+    </row>
+    <row r="33" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G33" s="30" t="s">
+        <v>292</v>
+      </c>
+      <c r="H33" s="31" t="s">
+        <v>225</v>
+      </c>
+      <c r="I33" s="30"/>
+    </row>
+    <row r="34" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G34" s="30"/>
+      <c r="H34" s="30"/>
+      <c r="I34" s="30"/>
+    </row>
+    <row r="35" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G35" s="32" t="s">
+        <v>295</v>
+      </c>
+      <c r="H35" s="33" t="s">
+        <v>241</v>
+      </c>
+      <c r="I35" s="30"/>
+    </row>
+    <row r="36" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G36" s="30"/>
+      <c r="H36" s="30"/>
+      <c r="I36" s="30"/>
+    </row>
+    <row r="37" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G37" s="30" t="s">
+        <v>290</v>
+      </c>
+      <c r="H37" s="33" t="s">
+        <v>241</v>
+      </c>
+      <c r="I37" s="30"/>
+    </row>
+    <row r="38" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G38" s="30"/>
+      <c r="H38" s="33" t="s">
+        <v>242</v>
+      </c>
+      <c r="I38" s="30"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Machine_Learning/HouseData/Documents/VariableAnalysys.xlsx
+++ b/Machine_Learning/HouseData/Documents/VariableAnalysys.xlsx
@@ -11,7 +11,7 @@
     <sheet name="ObjectPara" sheetId="5" r:id="rId2"/>
     <sheet name="Correlation" sheetId="6" r:id="rId3"/>
     <sheet name="Multicolleriarity" sheetId="7" r:id="rId4"/>
-    <sheet name="Sheet3" sheetId="8" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="9" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Multicolleriarity!$F$1:$F$44</definedName>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="338">
   <si>
     <t>Column Name</t>
   </si>
@@ -1054,9 +1054,6 @@
     <t>BsmtQual</t>
   </si>
   <si>
-    <t xml:space="preserve">ExterQual </t>
-  </si>
-  <si>
     <t>Fireplaces       0.489450</t>
   </si>
   <si>
@@ -1073,6 +1070,114 @@
   </si>
   <si>
     <t>TotalBsmtSF      0.372838</t>
+  </si>
+  <si>
+    <t>Coefficients</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>MSSubClass</t>
+  </si>
+  <si>
+    <t>LotArea</t>
+  </si>
+  <si>
+    <t>OverallCond</t>
+  </si>
+  <si>
+    <t>YearRemodAdd</t>
+  </si>
+  <si>
+    <t>BsmtFinSF1</t>
+  </si>
+  <si>
+    <t>BsmtFinSF2</t>
+  </si>
+  <si>
+    <t>BsmtUnfSF</t>
+  </si>
+  <si>
+    <t>TotalBsmtSF</t>
+  </si>
+  <si>
+    <t>1stFlrSF</t>
+  </si>
+  <si>
+    <t>2ndFlrSF</t>
+  </si>
+  <si>
+    <t>LowQualFinSF</t>
+  </si>
+  <si>
+    <t>BsmtFullBath</t>
+  </si>
+  <si>
+    <t>BsmtHalfBath</t>
+  </si>
+  <si>
+    <t>FullBath</t>
+  </si>
+  <si>
+    <t>HalfBath</t>
+  </si>
+  <si>
+    <t>BedroomAbvGr</t>
+  </si>
+  <si>
+    <t>KitchenAbvGr</t>
+  </si>
+  <si>
+    <t>TotRmsAbvGrd</t>
+  </si>
+  <si>
+    <t>Fireplaces</t>
+  </si>
+  <si>
+    <t>GarageArea</t>
+  </si>
+  <si>
+    <t>WoodDeckSF</t>
+  </si>
+  <si>
+    <t>OpenPorchSF</t>
+  </si>
+  <si>
+    <t>EnclosedPorch</t>
+  </si>
+  <si>
+    <t>3SsnPorch</t>
+  </si>
+  <si>
+    <t>ScreenPorch</t>
+  </si>
+  <si>
+    <t>PoolArea</t>
+  </si>
+  <si>
+    <t>MiscVal</t>
+  </si>
+  <si>
+    <t>MoSold</t>
+  </si>
+  <si>
+    <t>YrSold</t>
+  </si>
+  <si>
+    <t>LotShape</t>
+  </si>
+  <si>
+    <t>BsmtExposure</t>
+  </si>
+  <si>
+    <t>GarageFinish</t>
+  </si>
+  <si>
+    <t>HeatingQC</t>
+  </si>
+  <si>
+    <t>GarageType</t>
   </si>
 </sst>
 </file>
@@ -1207,7 +1312,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1294,55 +1399,30 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00B050"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2752,7 +2832,7 @@
         <v>222</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2760,7 +2840,7 @@
         <v>223</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -2768,7 +2848,7 @@
         <v>224</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -2776,7 +2856,7 @@
         <v>225</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2784,7 +2864,7 @@
         <v>226</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -2792,7 +2872,7 @@
         <v>227</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -2928,7 +3008,7 @@
   <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3537,514 +3617,382 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I38"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13:D23"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.5703125" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" customWidth="1"/>
-    <col min="7" max="7" width="30.140625" customWidth="1"/>
-    <col min="8" max="8" width="18.140625" customWidth="1"/>
-    <col min="9" max="9" width="15.42578125" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
-        <v>248</v>
-      </c>
-      <c r="B1" s="27">
-        <v>0.85416300000000001</v>
-      </c>
-      <c r="D1" s="29" t="s">
-        <v>257</v>
-      </c>
-      <c r="E1" s="29">
-        <v>-0.63431899999999997</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="H1" s="7">
-        <v>0.88247500000000001</v>
-      </c>
-      <c r="I1" s="1" t="s">
+    <row r="1" spans="1:5" ht="24" x14ac:dyDescent="0.25">
+      <c r="A1" s="31" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="24" x14ac:dyDescent="0.25">
+      <c r="A2" s="32" t="s">
+        <v>303</v>
+      </c>
+      <c r="B2" s="33">
+        <v>-1.909354</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>294</v>
+      </c>
+      <c r="E2" s="36">
+        <v>8.9410000000000003E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="31" t="s">
+        <v>304</v>
+      </c>
+      <c r="B3" s="34">
+        <v>-134.30721600000001</v>
+      </c>
+      <c r="D3" s="31" t="s">
+        <v>292</v>
+      </c>
+      <c r="E3" s="34">
+        <v>0.34590700000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="24" x14ac:dyDescent="0.25">
+      <c r="A4" s="32" t="s">
+        <v>305</v>
+      </c>
+      <c r="B4" s="33">
+        <v>0.46544099999999999</v>
+      </c>
+      <c r="D4" s="32" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
-        <v>251</v>
-      </c>
-      <c r="B2" s="27">
-        <v>-0.82214399999999999</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>262</v>
-      </c>
-      <c r="E2" s="16">
-        <v>0.61420699999999995</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="H2" s="7">
-        <v>0.82616500000000004</v>
-      </c>
-      <c r="I2" s="1" t="s">
+      <c r="E4" s="33">
+        <v>7.7487E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="35" t="s">
+        <v>294</v>
+      </c>
+      <c r="B5" s="36">
+        <v>17582.265549</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>312</v>
+      </c>
+      <c r="E5" s="34">
+        <v>0.16639899999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="24" x14ac:dyDescent="0.25">
+      <c r="A6" s="32" t="s">
+        <v>306</v>
+      </c>
+      <c r="B6" s="33">
+        <v>4915.5787970000001</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>326</v>
+      </c>
+      <c r="E6" s="33">
+        <v>-4.738E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="31" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
-        <v>252</v>
-      </c>
-      <c r="B3" s="27">
-        <v>-0.804535</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>263</v>
-      </c>
-      <c r="E3" s="16">
-        <v>0.60798799999999997</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="H3" s="7">
-        <v>0.82552099999999995</v>
-      </c>
-      <c r="I3" s="1" t="s">
+      <c r="B7" s="34">
+        <v>354.41499900000002</v>
+      </c>
+      <c r="D7" s="31" t="s">
+        <v>333</v>
+      </c>
+      <c r="E7" s="34">
+        <v>-1.5620999999999999E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="24" x14ac:dyDescent="0.25">
+      <c r="A8" s="32" t="s">
+        <v>307</v>
+      </c>
+      <c r="B8" s="33">
+        <v>140.060588</v>
+      </c>
+      <c r="D8" s="32" t="s">
+        <v>334</v>
+      </c>
+      <c r="E8" s="33">
+        <v>-2.6898999999999999E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="24" x14ac:dyDescent="0.25">
+      <c r="A9" s="31" t="s">
+        <v>308</v>
+      </c>
+      <c r="B9" s="34">
+        <v>10.224290999999999</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>335</v>
+      </c>
+      <c r="E9" s="34">
+        <v>-6.2979999999999998E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="24" x14ac:dyDescent="0.25">
+      <c r="A10" s="32" t="s">
+        <v>309</v>
+      </c>
+      <c r="B10" s="33">
+        <v>-2.5040689999999999</v>
+      </c>
+      <c r="D10" s="32" t="s">
+        <v>336</v>
+      </c>
+      <c r="E10" s="33">
+        <v>-1.2736000000000001E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="24" x14ac:dyDescent="0.25">
+      <c r="A11" s="31" t="s">
+        <v>310</v>
+      </c>
+      <c r="B11" s="34">
+        <v>1.7116469999999999</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>337</v>
+      </c>
+      <c r="E11" s="34">
+        <v>-1.5551000000000001E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="32" t="s">
+        <v>311</v>
+      </c>
+      <c r="B12" s="33">
+        <v>9.4318690000000007</v>
+      </c>
+      <c r="D12" s="32" t="s">
+        <v>291</v>
+      </c>
+      <c r="E12" s="33">
+        <v>-1.8998999999999999E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="31" t="s">
+        <v>312</v>
+      </c>
+      <c r="B13" s="34">
+        <v>13.631192</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>295</v>
+      </c>
+      <c r="E13" s="34">
+        <v>-5.8979999999999996E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="32" t="s">
+        <v>313</v>
+      </c>
+      <c r="B14" s="33">
+        <v>9.5283569999999997</v>
+      </c>
+      <c r="D14" s="31" t="s">
+        <v>293</v>
+      </c>
+      <c r="E14" s="34">
+        <v>-2.9346000000000001E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="31" t="s">
+        <v>314</v>
+      </c>
+      <c r="B15" s="34">
+        <v>3.0105849999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="32" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
-        <v>253</v>
-      </c>
-      <c r="B4" s="27">
-        <v>0.67662</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>264</v>
-      </c>
-      <c r="E4" s="16">
-        <v>0.60067099999999995</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="H4" s="7">
-        <v>0.65316700000000005</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="27" t="s">
-        <v>254</v>
-      </c>
-      <c r="B5" s="27">
-        <v>0.65400400000000003</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>265</v>
-      </c>
-      <c r="E5" s="16">
-        <v>-0.59963900000000003</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="H5" s="7">
-        <v>0.64158400000000004</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="27" t="s">
-        <v>258</v>
-      </c>
-      <c r="B6" s="27">
-        <v>0.63351100000000005</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>269</v>
-      </c>
-      <c r="E6" s="16">
-        <v>0.57232700000000003</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="H6" s="7">
-        <v>-0.62982800000000005</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="27" t="s">
-        <v>261</v>
-      </c>
-      <c r="B7" s="27">
-        <v>0.61838300000000002</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>271</v>
-      </c>
-      <c r="E7" s="16">
-        <v>-0.56970500000000002</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="H7" s="7">
-        <v>0.62096499999999999</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="27" t="s">
-        <v>266</v>
-      </c>
-      <c r="B8" s="27">
-        <v>0.59114800000000001</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>278</v>
-      </c>
-      <c r="E8" s="16">
-        <v>0.54598999999999998</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="H8" s="7">
-        <v>-0.57114500000000001</v>
-      </c>
-      <c r="I8" s="1" t="s">
+      <c r="B16" s="33">
+        <v>26.170134000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="31" t="s">
+        <v>315</v>
+      </c>
+      <c r="B17" s="34">
+        <v>8627.1987179999996</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="32" t="s">
+        <v>316</v>
+      </c>
+      <c r="B18" s="33">
+        <v>4471.6012490000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="31" t="s">
+        <v>317</v>
+      </c>
+      <c r="B19" s="34">
+        <v>5878.3485449999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="32" t="s">
+        <v>318</v>
+      </c>
+      <c r="B20" s="33">
+        <v>-345.50270599999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="24" x14ac:dyDescent="0.25">
+      <c r="A21" s="31" t="s">
+        <v>319</v>
+      </c>
+      <c r="B21" s="34">
+        <v>-10000.890299999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="24" x14ac:dyDescent="0.25">
+      <c r="A22" s="32" t="s">
+        <v>320</v>
+      </c>
+      <c r="B22" s="33">
+        <v>-17071.704108000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="24" x14ac:dyDescent="0.25">
+      <c r="A23" s="31" t="s">
+        <v>321</v>
+      </c>
+      <c r="B23" s="34">
+        <v>7476.66219</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="24" x14ac:dyDescent="0.25">
+      <c r="A24" s="32" t="s">
+        <v>322</v>
+      </c>
+      <c r="B24" s="33">
+        <v>3857.6162469999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="24" x14ac:dyDescent="0.25">
+      <c r="A25" s="31" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="27" t="s">
-        <v>267</v>
-      </c>
-      <c r="B9" s="27">
-        <v>0.58943000000000001</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>288</v>
-      </c>
-      <c r="E9" s="16">
-        <v>-0.50484600000000002</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="H9" s="7">
-        <v>0.56202200000000002</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="27" t="s">
-        <v>268</v>
-      </c>
-      <c r="B10" s="27">
-        <v>0.57915499999999998</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>289</v>
-      </c>
-      <c r="E10" s="16">
-        <v>-0.50254699999999997</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="H10" s="7">
-        <v>0.55857100000000004</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="27" t="s">
-        <v>272</v>
-      </c>
-      <c r="B11" s="27">
-        <v>-0.56491100000000005</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="H11" s="7">
-        <v>-0.55534799999999995</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="27" t="s">
-        <v>276</v>
-      </c>
-      <c r="B12" s="27">
-        <v>0.55478400000000005</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>221</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="H12" s="7">
-        <v>0.53884799999999999</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="27" t="s">
-        <v>277</v>
-      </c>
-      <c r="B13" s="27">
-        <v>0.55059999999999998</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>222</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="H13" s="7">
-        <v>0.51761599999999997</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="27" t="s">
-        <v>280</v>
-      </c>
-      <c r="B14" s="27">
-        <v>-0.53628799999999999</v>
-      </c>
-      <c r="D14" s="28" t="s">
-        <v>223</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="H14" s="7">
-        <v>-0.50497199999999998</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="27" t="s">
-        <v>281</v>
-      </c>
-      <c r="B15" s="27">
-        <v>0.53379900000000002</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="27" t="s">
-        <v>282</v>
-      </c>
-      <c r="B16" s="27">
-        <v>-0.53080400000000005</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="27" t="s">
-        <v>283</v>
-      </c>
-      <c r="B17" s="27">
-        <v>0.52437199999999995</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="27" t="s">
-        <v>285</v>
-      </c>
-      <c r="B18" s="27">
-        <v>-0.51633600000000002</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="27" t="s">
-        <v>286</v>
-      </c>
-      <c r="B19" s="27">
-        <v>0.50911600000000001</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D20" s="18" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D21" s="18" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D22" s="18" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D23" s="18" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D24" s="28" t="s">
-        <v>243</v>
-      </c>
-      <c r="G24" s="30" t="s">
-        <v>294</v>
-      </c>
-      <c r="H24" s="34" t="s">
-        <v>222</v>
-      </c>
-      <c r="I24" s="30"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G25" s="30"/>
-      <c r="H25" s="34" t="s">
-        <v>223</v>
-      </c>
-      <c r="I25" s="30"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G26" s="30"/>
-      <c r="H26" s="33" t="s">
-        <v>241</v>
-      </c>
-      <c r="I26" s="30"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G27" s="30"/>
-      <c r="H27" s="33" t="s">
-        <v>242</v>
-      </c>
-      <c r="I27" s="30"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G28" s="30"/>
-      <c r="H28" s="34" t="s">
-        <v>243</v>
-      </c>
-      <c r="I28" s="30"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G29" s="30"/>
-      <c r="H29" s="30"/>
-      <c r="I29" s="30"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G30" s="30" t="s">
-        <v>296</v>
-      </c>
-      <c r="H30" s="33" t="s">
-        <v>242</v>
-      </c>
-      <c r="I30" s="30"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G31" s="30"/>
-      <c r="H31" s="31"/>
-      <c r="I31" s="30"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G32" s="30"/>
-      <c r="H32" s="30"/>
-      <c r="I32" s="30"/>
-    </row>
-    <row r="33" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G33" s="30" t="s">
-        <v>292</v>
-      </c>
-      <c r="H33" s="31" t="s">
-        <v>225</v>
-      </c>
-      <c r="I33" s="30"/>
-    </row>
-    <row r="34" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G34" s="30"/>
-      <c r="H34" s="30"/>
-      <c r="I34" s="30"/>
-    </row>
-    <row r="35" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G35" s="32" t="s">
-        <v>295</v>
-      </c>
-      <c r="H35" s="33" t="s">
-        <v>241</v>
-      </c>
-      <c r="I35" s="30"/>
-    </row>
-    <row r="36" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G36" s="30"/>
-      <c r="H36" s="30"/>
-      <c r="I36" s="30"/>
-    </row>
-    <row r="37" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G37" s="30" t="s">
-        <v>290</v>
-      </c>
-      <c r="H37" s="33" t="s">
-        <v>241</v>
-      </c>
-      <c r="I37" s="30"/>
-    </row>
-    <row r="38" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G38" s="30"/>
-      <c r="H38" s="33" t="s">
-        <v>242</v>
-      </c>
-      <c r="I38" s="30"/>
+      <c r="B25" s="34">
+        <v>11242.672945</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="24" x14ac:dyDescent="0.25">
+      <c r="A26" s="32" t="s">
+        <v>323</v>
+      </c>
+      <c r="B26" s="33">
+        <v>3.2459259999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="24" x14ac:dyDescent="0.25">
+      <c r="A27" s="31" t="s">
+        <v>324</v>
+      </c>
+      <c r="B27" s="34">
+        <v>37.163634000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="24" x14ac:dyDescent="0.25">
+      <c r="A28" s="32" t="s">
+        <v>325</v>
+      </c>
+      <c r="B28" s="33">
+        <v>5.8339819999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="24" x14ac:dyDescent="0.25">
+      <c r="A29" s="31" t="s">
+        <v>326</v>
+      </c>
+      <c r="B29" s="34">
+        <v>28.70947</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="24" x14ac:dyDescent="0.25">
+      <c r="A30" s="32" t="s">
+        <v>327</v>
+      </c>
+      <c r="B30" s="33">
+        <v>9.8142420000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="24" x14ac:dyDescent="0.25">
+      <c r="A31" s="31" t="s">
+        <v>328</v>
+      </c>
+      <c r="B31" s="34">
+        <v>74.931071000000003</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="32" t="s">
+        <v>329</v>
+      </c>
+      <c r="B32" s="33">
+        <v>-144.43900300000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="31" t="s">
+        <v>330</v>
+      </c>
+      <c r="B33" s="34">
+        <v>-0.47728199999999998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="32" t="s">
+        <v>331</v>
+      </c>
+      <c r="B34" s="33">
+        <v>-125.763668</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="31" t="s">
+        <v>332</v>
+      </c>
+      <c r="B35" s="34">
+        <v>-924.87884799999995</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Machine_Learning/HouseData/Documents/VariableAnalysys.xlsx
+++ b/Machine_Learning/HouseData/Documents/VariableAnalysys.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="AllParameters" sheetId="1" r:id="rId1"/>
@@ -12,16 +12,18 @@
     <sheet name="Correlation" sheetId="6" r:id="rId3"/>
     <sheet name="Multicolleriarity" sheetId="7" r:id="rId4"/>
     <sheet name="Sheet1" sheetId="9" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="10" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Multicolleriarity!$F$1:$F$44</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="345">
   <si>
     <t>Column Name</t>
   </si>
@@ -1178,6 +1180,27 @@
   </si>
   <si>
     <t>GarageType</t>
+  </si>
+  <si>
+    <t>CentralAir       0.351599</t>
+  </si>
+  <si>
+    <t>GarageCond       0.323691</t>
+  </si>
+  <si>
+    <t>PavedDrive       0.304687</t>
+  </si>
+  <si>
+    <t>Electrical       0.294399</t>
+  </si>
+  <si>
+    <t>GarageQual       0.275692</t>
+  </si>
+  <si>
+    <t>SaleCondition    0.248819</t>
+  </si>
+  <si>
+    <t>HouseStyle       0.214717</t>
   </si>
 </sst>
 </file>
@@ -3007,7 +3030,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
@@ -3631,7 +3654,7 @@
     <col min="5" max="5" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="31" t="s">
         <v>302</v>
       </c>
@@ -3641,7 +3664,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>303</v>
       </c>
@@ -3669,7 +3692,7 @@
         <v>0.34590700000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
         <v>305</v>
       </c>
@@ -3697,7 +3720,7 @@
         <v>0.16639899999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
         <v>306</v>
       </c>
@@ -3725,7 +3748,7 @@
         <v>-1.5620999999999999E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="32" t="s">
         <v>307</v>
       </c>
@@ -3739,7 +3762,7 @@
         <v>-2.6898999999999999E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="31" t="s">
         <v>308</v>
       </c>
@@ -3753,7 +3776,7 @@
         <v>-6.2979999999999998E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="32" t="s">
         <v>309</v>
       </c>
@@ -3767,7 +3790,7 @@
         <v>-1.2736000000000001E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="31" t="s">
         <v>310</v>
       </c>
@@ -3871,7 +3894,7 @@
         <v>-345.50270599999999</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="24" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="31" t="s">
         <v>319</v>
       </c>
@@ -3879,7 +3902,7 @@
         <v>-10000.890299999999</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="24" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="32" t="s">
         <v>320</v>
       </c>
@@ -3887,7 +3910,7 @@
         <v>-17071.704108000002</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="24" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="31" t="s">
         <v>321</v>
       </c>
@@ -3895,7 +3918,7 @@
         <v>7476.66219</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="24" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="32" t="s">
         <v>322</v>
       </c>
@@ -3903,7 +3926,7 @@
         <v>3857.6162469999999</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="24" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="31" t="s">
         <v>290</v>
       </c>
@@ -3911,7 +3934,7 @@
         <v>11242.672945</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="24" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="32" t="s">
         <v>323</v>
       </c>
@@ -3919,7 +3942,7 @@
         <v>3.2459259999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="24" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="31" t="s">
         <v>324</v>
       </c>
@@ -3927,7 +3950,7 @@
         <v>37.163634000000002</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="24" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="32" t="s">
         <v>325</v>
       </c>
@@ -3935,7 +3958,7 @@
         <v>5.8339819999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="24" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="31" t="s">
         <v>326</v>
       </c>
@@ -3943,7 +3966,7 @@
         <v>28.70947</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="24" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="32" t="s">
         <v>327</v>
       </c>
@@ -3951,7 +3974,7 @@
         <v>9.8142420000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="24" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="31" t="s">
         <v>328</v>
       </c>
@@ -3989,6 +4012,156 @@
       </c>
       <c r="B35" s="34">
         <v>-924.87884799999995</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.85546875" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="18" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="18" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="18" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="18" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="18" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="18" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="19" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="19" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D21" s="31"/>
+      <c r="E21" s="31" t="s">
+        <v>245</v>
+      </c>
+      <c r="F21" s="31" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D22" s="32">
+        <v>3</v>
+      </c>
+      <c r="E22" s="33" t="s">
+        <v>248</v>
+      </c>
+      <c r="F22" s="33">
+        <v>0.85416300000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D23" s="31">
+        <v>2</v>
+      </c>
+      <c r="E23" s="34" t="s">
+        <v>256</v>
+      </c>
+      <c r="F23" s="34">
+        <v>0.64158400000000004</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D24" s="32">
+        <v>1</v>
+      </c>
+      <c r="E24" s="33" t="s">
+        <v>261</v>
+      </c>
+      <c r="F24" s="33">
+        <v>0.61838300000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D25" s="31">
+        <v>0</v>
+      </c>
+      <c r="E25" s="34" t="s">
+        <v>269</v>
+      </c>
+      <c r="F25" s="34">
+        <v>0.57232700000000003</v>
       </c>
     </row>
   </sheetData>
